--- a/Unit_Test/plan_test.xlsx
+++ b/Unit_Test/plan_test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\romain\Dropbox\pres_east\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20420"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de test" sheetId="1" r:id="rId1"/>
@@ -19,8 +14,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan de test'!$B$6:$H$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
   <si>
     <t>Plan de tests</t>
   </si>
@@ -73,19 +71,12 @@
     <t>Changer de liste de musique</t>
   </si>
   <si>
-    <t xml:space="preserve">Changer de liste de musiques </t>
-  </si>
-  <si>
     <t>résultat</t>
   </si>
   <si>
     <t>Etapes</t>
   </si>
   <si>
-    <t>Voir la liste des musiques distantes
-Voir la liste des musiques locale</t>
-  </si>
-  <si>
     <t>Choix de musique</t>
   </si>
   <si>
@@ -99,13 +90,6 @@
   </si>
   <si>
     <t>vue de la musique local</t>
-  </si>
-  <si>
-    <t>Voir la durée de la musique s'afficher 
- le bouton play disponible</t>
-  </si>
-  <si>
-    <t>Choisir une musique Distante</t>
   </si>
   <si>
     <t>Choix de musique - robustesse</t>
@@ -186,9 +170,6 @@
     <t>Lecture d'une musique personnel</t>
   </si>
   <si>
-    <t>Les musique personnel sont en blanc dans la liste</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -251,9 +232,6 @@
     <t xml:space="preserve">lecture musique avec une piste coupée </t>
   </si>
   <si>
-    <t>La pistes coupée ne doit plus être lue</t>
-  </si>
-  <si>
     <t>M-2</t>
   </si>
   <si>
@@ -305,9 +283,6 @@
     <t>lecture musique avec une piste coupée après une navigation dans musique</t>
   </si>
   <si>
-    <t>La musique doit reprendre au moment choisi sans la piste coupé</t>
-  </si>
-  <si>
     <t>M-6</t>
   </si>
   <si>
@@ -323,9 +298,6 @@
     <t>Lecture avec toutes les pistes en solo</t>
   </si>
   <si>
-    <t>La musiques doit être identique que si aucune piste en solo</t>
-  </si>
-  <si>
     <t>M-8</t>
   </si>
   <si>
@@ -366,9 +338,6 @@
   </si>
   <si>
     <t>lecture dans une boucle avec piste solo</t>
-  </si>
-  <si>
-    <t>La musique doit boucler seuelement sur l'intervalle selectionné avec la piste en solo</t>
   </si>
   <si>
     <t>C-2 ou C-3</t>
@@ -414,9 +383,6 @@
 lire la musique</t>
   </si>
   <si>
-    <t>La musique doit être lue dans son intégralité</t>
-  </si>
-  <si>
     <t>reset de la boucle avec piste coupée</t>
   </si>
   <si>
@@ -472,9 +438,6 @@
     <t>Supprimer une musique Distante</t>
   </si>
   <si>
-    <t>Supprimer une musique Personnelle</t>
-  </si>
-  <si>
     <t>Supprimer une musique distante</t>
   </si>
   <si>
@@ -485,9 +448,6 @@
   </si>
   <si>
     <t>Changer l'adresse du serveur</t>
-  </si>
-  <si>
-    <t>être connecté</t>
   </si>
   <si>
     <t>Changer l'adresse du serveur dans les paramètres
@@ -503,23 +463,12 @@
     <t>Changer l'adresse du serveur dans les paramètres</t>
   </si>
   <si>
-    <t>La musique doi être arrêtée ?</t>
-  </si>
-  <si>
     <t>P-2</t>
   </si>
   <si>
     <t>P-3</t>
   </si>
   <si>
-    <t>Desactivation de la mise en cache</t>
-  </si>
-  <si>
-    <t>Désactiver la mise en cache
-puis faire test C-2
-retourner sur la liste local</t>
-  </si>
-  <si>
     <t>La musique choisie ne doit pas être présente dans la liste des musique local</t>
   </si>
   <si>
@@ -542,13 +491,104 @@
   </si>
   <si>
     <t>A-1</t>
+  </si>
+  <si>
+    <t>- Voir la durée de la musique s'afficher 
+- le bouton play disponible</t>
+  </si>
+  <si>
+    <t>Choisir une musique locale</t>
+  </si>
+  <si>
+    <t>vue de la musique locale</t>
+  </si>
+  <si>
+    <t>L'ensemble des pistes peut être lu</t>
+  </si>
+  <si>
+    <t>- Voir la liste des musiques distantes
+- Voir la liste des musiques locales</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>- Voir la durée de la musique s'afficher 
+- Le bouton play devient disponible</t>
+  </si>
+  <si>
+    <t>La piste coupée ne doit plus être lue</t>
+  </si>
+  <si>
+    <t>La piste doit être la seul lue</t>
+  </si>
+  <si>
+    <t>La musique doit reprendre au moment choisi sans la piste coupée</t>
+  </si>
+  <si>
+    <t>La musique doit être identique que si aucune piste en solo</t>
+  </si>
+  <si>
+    <t>Adapter l'aspect du bouton en fnt de l'état de la piste</t>
+  </si>
+  <si>
+    <t>RAF</t>
+  </si>
+  <si>
+    <t>Lecture d'une musique personnelle</t>
+  </si>
+  <si>
+    <t>Les musiques personnelles sont sur fond blanc dans la liste</t>
+  </si>
+  <si>
+    <t>Sélectionner un intervalle de boucle
+Lire la musique</t>
+  </si>
+  <si>
+    <t>La musique doit boucler seuelement sur l'intervalle selectionné avec la piste solo</t>
+  </si>
+  <si>
+    <t>Réinitialiser la sélection
+lire la musique</t>
+  </si>
+  <si>
+    <t>Les poignées de la boucles doivent se trouver aux extrêmités de la barre de progression</t>
+  </si>
+  <si>
+    <t>Réinitiliser l'interface graphique</t>
+  </si>
+  <si>
+    <t>Avoir un accès internet</t>
+  </si>
+  <si>
+    <t>Affiche la nouvelle liste de musique sans affecter la lecture</t>
+  </si>
+  <si>
+    <t>Désactivation de la mise en cache</t>
+  </si>
+  <si>
+    <t>- Désactiver la mise en cache
+- puis faire test C-2
+- retourner sur la liste local</t>
+  </si>
+  <si>
+    <t>A-2</t>
+  </si>
+  <si>
+    <t>A propos</t>
+  </si>
+  <si>
+    <t>Affiche la fenêtre d'a propos</t>
+  </si>
+  <si>
+    <t>Une fenêtre s'affiche avec les informations du GitHub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +599,22 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -581,10 +637,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -592,8 +654,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
@@ -672,7 +743,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A6:H44" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A6:H44"/>
+  <autoFilter ref="A6:H44">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="RAF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" name="N" dataDxfId="17"/>
     <tableColumn id="2" name="Module" dataDxfId="16"/>
@@ -747,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,7 +859,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,7 +1036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -967,26 +1044,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1079,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1014,7 +1092,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1027,9 +1105,9 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1038,613 +1116,723 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="26.25" hidden="1" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28" hidden="1">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28" hidden="1">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28" hidden="1">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28" hidden="1">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28" hidden="1">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28" hidden="1">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28" hidden="1">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28" hidden="1">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="42" hidden="1">
+      <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="42" hidden="1">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28" hidden="1">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28" hidden="1">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28" hidden="1">
+      <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28" hidden="1">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28" hidden="1">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28" hidden="1">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28" hidden="1">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
+      <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28" hidden="1">
+      <c r="A36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="G36" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28" hidden="1">
+      <c r="A38" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42" hidden="1">
+      <c r="A40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>159</v>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1652,10 +1840,15 @@
     <mergeCell ref="A1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1667,21 +1860,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1690,162 +1883,162 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="78" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="84" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="56">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1853,6 +2046,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1864,100 +2062,105 @@
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Unit_Test/plan_test.xlsx
+++ b/Unit_Test/plan_test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romain\Documents\GitHub\MT5\Unit_Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20424"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de test" sheetId="1" r:id="rId1"/>
@@ -16,18 +21,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="174">
   <si>
     <t>Plan de tests</t>
   </si>
@@ -532,9 +537,6 @@
     <t>Adapter l'aspect du bouton en fnt de l'état de la piste</t>
   </si>
   <si>
-    <t>RAF</t>
-  </si>
-  <si>
     <t>Lecture d'une musique personnelle</t>
   </si>
   <si>
@@ -582,6 +584,9 @@
   </si>
   <si>
     <t>Une fenêtre s'affiche avec les informations du GitHub</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -651,11 +656,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -743,13 +748,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A6:H44" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A6:H44">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="RAF"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A6:H44"/>
   <tableColumns count="8">
     <tableColumn id="1" name="N" dataDxfId="17"/>
     <tableColumn id="2" name="Module" dataDxfId="16"/>
@@ -1036,7 +1035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1044,68 +1043,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="1"/>
+    <col min="9" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1147,14 +1146,14 @@
       <c r="E7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28" hidden="1">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1170,14 +1169,14 @@
       <c r="E8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28" hidden="1">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1193,14 +1192,14 @@
       <c r="E9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28" hidden="1">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28" hidden="1">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28" hidden="1">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
@@ -1269,10 +1268,10 @@
         <v>151</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28" hidden="1">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28" hidden="1">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28" hidden="1">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1384,13 +1383,13 @@
         <v>153</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -1410,10 +1409,13 @@
         <v>154</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1">
+        <v>173</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42" hidden="1">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
@@ -1482,7 +1484,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="42" hidden="1">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28" hidden="1">
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>89</v>
@@ -1528,7 +1530,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28" hidden="1">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>97</v>
@@ -1551,7 +1553,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28" hidden="1">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
@@ -1568,13 +1570,13 @@
         <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28" hidden="1">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -1588,16 +1590,16 @@
         <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="G29" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28" hidden="1">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -1614,13 +1616,13 @@
         <v>109</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28" hidden="1">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1637,13 +1639,13 @@
         <v>109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28" hidden="1">
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -1686,13 +1688,13 @@
         <v>121</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28" hidden="1">
+    <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28" hidden="1">
+    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>129</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>132</v>
@@ -1761,7 +1763,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>136</v>
       </c>
@@ -1778,10 +1780,13 @@
         <v>135</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="42" hidden="1">
+        <v>166</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>137</v>
       </c>
@@ -1789,10 +1794,10 @@
         <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>138</v>
@@ -1801,7 +1806,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -1814,22 +1819,25 @@
       <c r="E42" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>151</v>
@@ -1860,19 +1868,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1"/>
     <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78" customHeight="1">
+    <row r="2" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="66.75" customHeight="1">
+    <row r="3" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="84" customHeight="1">
+    <row r="4" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1958,7 +1966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2062,12 +2070,12 @@
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2075,7 +2083,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2091,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2099,7 +2107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2115,7 +2123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2123,7 +2131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +2139,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
